--- a/project_numbers.xlsx
+++ b/project_numbers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Whitewolf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blackwolf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AE89F-B695-44C4-B6A1-E9801669F456}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1282E41C-3211-4FFC-AB1D-6C53189A41FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="12540" windowHeight="10200" xr2:uid="{34F2D8AA-6758-4F7D-9694-CFB6A869796F}"/>
+    <workbookView xWindow="7560" yWindow="1500" windowWidth="16110" windowHeight="11310" xr2:uid="{34F2D8AA-6758-4F7D-9694-CFB6A869796F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Part #</t>
   </si>
@@ -58,18 +58,6 @@
   </si>
   <si>
     <t>t-test</t>
-  </si>
-  <si>
-    <t>anova</t>
-  </si>
-  <si>
-    <t>df=1</t>
-  </si>
-  <si>
-    <t>F=3.36</t>
-  </si>
-  <si>
-    <t>P=0.083391</t>
   </si>
   <si>
     <t>Use</t>
@@ -111,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B613EC-AC1B-4359-B27C-D589A7397B7A}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,10 +1125,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -1150,10 +1139,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
       <c r="E3" t="s">
@@ -1164,10 +1153,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1175,10 +1164,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1186,14 +1175,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,9 +1192,6 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1220,9 +1203,6 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1234,9 +1214,6 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1310,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,10 +1298,10 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,10 +1309,10 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -1365,10 +1342,10 @@
         <v>5</v>
       </c>
       <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>5</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,10 +1386,10 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>7</v>
